--- a/target/classes/caratteri_speciali/excel/speciali_template.xlsx
+++ b/target/classes/caratteri_speciali/excel/speciali_template.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{778907B7-54EC-47A4-AD4F-A3EC935AD4DA}">
